--- a/01_requirments/システムテスト仕様書.xlsx
+++ b/01_requirments/システムテスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Team5\01_requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B05FC8-DDEF-49F5-B342-9245E45ADB52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4EC0CE-9BAF-4611-B232-44D347BFB661}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="270" windowWidth="11820" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システムテスト(反復3) " sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>タイトル：チケット予約システム テスト仕様書</t>
   </si>
@@ -381,6 +381,60 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>手順７
+・予約はありません
+・チケット情報
+チケット番号:1
+チケット名:水族館
+価格:2000
+開催日:2020-07-07
+在庫:20
+手順１３
+・予約情報
+予約番号:1
+会員名:クレスコ明日
+チケット名:水族館
+予約日:ｘｘｘｘ-〇〇-△△
+予約枚数:大人３・子供２
+手順１4
+・予約情報
+予約番号:1
+会員名:クレスコ明日
+チケット名:水族館
+予約日:ｘｘｘｘ-〇〇-△△
+予約枚数：大人３・子供２
+手順１5
+・チケット情報
+チケット番号:1
+チケット名:水族館
+価格:2000
+開催日:2020-07-07
+在庫:0
+手順２１
+・予約情報
+予約番号:1
+会員名:クレスコ明日
+チケット名:水族館
+予約日:ｘｘｘｘ-〇〇-△△
+予約枚数:大人３・子供２
+手順２5
+・予約はありません
+手順２6
+・チケット情報
+チケット番号:1
+チケット名:水族館
+価格:2000
+開催日:2020-07-07
+在庫:20</t>
+    <rPh sb="131" eb="133">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>コドモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -449,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -635,13 +689,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +922,102 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,8 +1363,8 @@
   </sheetPr>
   <dimension ref="B1:AS16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:S7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7:AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1349,16 +1631,852 @@
       <c r="AR6" s="28"/>
       <c r="AS6" s="31"/>
     </row>
+    <row r="7" spans="2:45" ht="311.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="62"/>
+    </row>
+    <row r="8" spans="2:45" ht="348" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="61"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="63"/>
+    </row>
+    <row r="9" spans="2:45" ht="237" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="11"/>
+    </row>
+    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="11"/>
+    </row>
+    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="11"/>
+    </row>
+    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="11"/>
+    </row>
+    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="11"/>
+    </row>
+    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="11"/>
+    </row>
+    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="11"/>
+    </row>
+    <row r="16" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="83">
+    <mergeCell ref="AD7:AG8"/>
+    <mergeCell ref="AH7:AK8"/>
+    <mergeCell ref="AL7:AO8"/>
+    <mergeCell ref="AP7:AS8"/>
+    <mergeCell ref="T7:X8"/>
+    <mergeCell ref="E7:S8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="Y7:AC8"/>
+    <mergeCell ref="B2:AS3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AK15"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800247CE-5087-4E29-9A5F-DB3EEFF89DA1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AS16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7:X7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+    </row>
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+    </row>
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+    </row>
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+    </row>
+    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
+      <c r="B6" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="31"/>
+    </row>
     <row r="7" spans="2:45" ht="408" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -1917,15 +3035,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800247CE-5087-4E29-9A5F-DB3EEFF89DA1}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AS16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:X7"/>
+    <sheetView topLeftCell="D7" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10:AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2192,7 +3310,7 @@
       <c r="AR6" s="28"/>
       <c r="AS6" s="31"/>
     </row>
-    <row r="7" spans="2:45" ht="408" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:45" ht="203.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
@@ -2201,7 +3319,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -2218,26 +3336,34 @@
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
       <c r="T7" s="20" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
+      <c r="AD7" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
+      <c r="AH7" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
-      <c r="AL7" s="22"/>
+      <c r="AL7" s="22">
+        <v>43990</v>
+      </c>
       <c r="AM7" s="10"/>
       <c r="AN7" s="10"/>
       <c r="AO7" s="10"/>
@@ -2246,11 +3372,17 @@
       <c r="AR7" s="10"/>
       <c r="AS7" s="11"/>
     </row>
-    <row r="8" spans="2:45" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="18"/>
+    <row r="8" spans="2:45" ht="129.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -2265,25 +3397,35 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="20"/>
+      <c r="T8" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
-      <c r="Y8" s="10"/>
+      <c r="Y8" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
+      <c r="AD8" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
+      <c r="AH8" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="AI8" s="10"/>
       <c r="AJ8" s="10"/>
       <c r="AK8" s="10"/>
-      <c r="AL8" s="22"/>
+      <c r="AL8" s="22">
+        <v>43990</v>
+      </c>
       <c r="AM8" s="10"/>
       <c r="AN8" s="10"/>
       <c r="AO8" s="10"/>
@@ -2292,11 +3434,17 @@
       <c r="AR8" s="10"/>
       <c r="AS8" s="11"/>
     </row>
-    <row r="9" spans="2:45" ht="237" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="18"/>
+    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="19"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -2311,25 +3459,35 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="20"/>
+      <c r="T9" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
+      <c r="AD9" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
+      <c r="AH9" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
-      <c r="AL9" s="22"/>
+      <c r="AL9" s="22">
+        <v>43990</v>
+      </c>
       <c r="AM9" s="10"/>
       <c r="AN9" s="10"/>
       <c r="AO9" s="10"/>
@@ -2387,7 +3545,7 @@
     <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -2433,7 +3591,7 @@
     <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -2662,96 +3820,96 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B2:AS3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL8:AO8"/>
     <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:S9"/>
     <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AH8:AK8"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:S8"/>
     <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
     <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="E7:S7"/>
     <mergeCell ref="T7:X7"/>
+    <mergeCell ref="AD7:AG7"/>
     <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:S10"/>
     <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="B2:AS3"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:S11"/>
     <mergeCell ref="T11:X11"/>
     <mergeCell ref="Y11:AC11"/>
     <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AL6:AO6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -2760,15 +3918,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AS16"/>
+  <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10:AO10"/>
+    <sheetView topLeftCell="M1" zoomScale="45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2783,7 +3941,7 @@
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -2881,7 +4039,7 @@
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -3035,17 +4193,11 @@
       <c r="AR6" s="28"/>
       <c r="AS6" s="31"/>
     </row>
-    <row r="7" spans="2:45" ht="203.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="18" t="s">
-        <v>12</v>
-      </c>
+    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="18"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>15</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -3060,35 +4212,25 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
-      <c r="T7" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="T7" s="20"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
-      <c r="Y7" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
-      <c r="AD7" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
-      <c r="AL7" s="22">
-        <v>43990</v>
-      </c>
+      <c r="AL7" s="10"/>
       <c r="AM7" s="10"/>
       <c r="AN7" s="10"/>
       <c r="AO7" s="10"/>
@@ -3097,17 +4239,11 @@
       <c r="AR7" s="10"/>
       <c r="AS7" s="11"/>
     </row>
-    <row r="8" spans="2:45" ht="129.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="18" t="s">
-        <v>20</v>
-      </c>
+    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="18"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -3122,35 +4258,25 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="T8" s="20"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
-      <c r="Y8" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
-      <c r="AD8" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="AH8" s="10"/>
       <c r="AI8" s="10"/>
       <c r="AJ8" s="10"/>
       <c r="AK8" s="10"/>
-      <c r="AL8" s="22">
-        <v>43990</v>
-      </c>
+      <c r="AL8" s="10"/>
       <c r="AM8" s="10"/>
       <c r="AN8" s="10"/>
       <c r="AO8" s="10"/>
@@ -3160,16 +4286,10 @@
       <c r="AS8" s="11"/>
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -3184,35 +4304,25 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="T9" s="20"/>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
-      <c r="Y9" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
-      <c r="AD9" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
-      <c r="AH9" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
-      <c r="AL9" s="22">
-        <v>43990</v>
-      </c>
+      <c r="AL9" s="10"/>
       <c r="AM9" s="10"/>
       <c r="AN9" s="10"/>
       <c r="AO9" s="10"/>
@@ -3497,841 +4607,6 @@
       <c r="AR15" s="10"/>
       <c r="AS15" s="11"/>
     </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="16"/>
-      <c r="AN16" s="16"/>
-      <c r="AO16" s="16"/>
-      <c r="AP16" s="16"/>
-      <c r="AQ16" s="16"/>
-      <c r="AR16" s="16"/>
-      <c r="AS16" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="B2:AS3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="Y8:AC8"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:AS17"/>
-  <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-    </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-    </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-    </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-    </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B6" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="31"/>
-    </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="11"/>
-    </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="11"/>
-    </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="11"/>
-    </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="11"/>
-    </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="11"/>
-    </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="11"/>
-    </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="11"/>
-    </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="11"/>
-    </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="11"/>
-    </row>
     <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
@@ -4426,6 +4701,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B2:AS3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="AD14:AG14"/>
     <mergeCell ref="B4:C4"/>
@@ -4442,88 +4799,6 @@
     <mergeCell ref="E13:S13"/>
     <mergeCell ref="T13:X13"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="E17:S17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B2:AS3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AL6:AO6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -4533,18 +4808,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4732,18 +5007,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
